--- a/simulation_data/two_step_algorithm/2s_error_level_2_percent_water_99.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_2_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.30842636792104</v>
+        <v>92.54039729184213</v>
       </c>
       <c r="D2" t="n">
-        <v>5.067491902194991</v>
+        <v>4.82078223761296</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.38209423606153</v>
+        <v>89.90902479875622</v>
       </c>
       <c r="D3" t="n">
-        <v>5.696757378448206</v>
+        <v>5.079409175651971</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.50249372633199</v>
+        <v>90.82063993535479</v>
       </c>
       <c r="D4" t="n">
-        <v>5.575320072370133</v>
+        <v>5.47767242210885</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.34737141321624</v>
+        <v>89.40985986369861</v>
       </c>
       <c r="D5" t="n">
-        <v>4.965417846973335</v>
+        <v>5.274621427135721</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.6506661095524</v>
+        <v>88.70283583146282</v>
       </c>
       <c r="D6" t="n">
-        <v>5.683594296160605</v>
+        <v>5.589932624854279</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.08876195328911</v>
+        <v>86.66200809518985</v>
       </c>
       <c r="D7" t="n">
-        <v>5.404950609323942</v>
+        <v>5.536529695598456</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>85.62771644776097</v>
+        <v>85.52683492020762</v>
       </c>
       <c r="D8" t="n">
-        <v>5.565548853767864</v>
+        <v>5.602422329669425</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.89382466703597</v>
+        <v>84.42977234022329</v>
       </c>
       <c r="D9" t="n">
-        <v>5.851972325291994</v>
+        <v>4.58158827167617</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.38915801112029</v>
+        <v>83.20631232411881</v>
       </c>
       <c r="D10" t="n">
-        <v>4.874906747855195</v>
+        <v>4.925894979041986</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.84462996402745</v>
+        <v>83.26466354400124</v>
       </c>
       <c r="D11" t="n">
-        <v>5.717820804888252</v>
+        <v>4.894541971745443</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.24283139999507</v>
+        <v>81.29621103428838</v>
       </c>
       <c r="D12" t="n">
-        <v>5.164005008725177</v>
+        <v>4.756537430767977</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.01328813589484</v>
+        <v>81.19388389095752</v>
       </c>
       <c r="D13" t="n">
-        <v>5.536649688044523</v>
+        <v>4.837947167539397</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.44162116504749</v>
+        <v>78.49681683493675</v>
       </c>
       <c r="D14" t="n">
-        <v>5.216687796369532</v>
+        <v>5.281707875655202</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.60157502084344</v>
+        <v>78.43990482645837</v>
       </c>
       <c r="D15" t="n">
-        <v>5.702841529225579</v>
+        <v>4.787234502493726</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.67707261103429</v>
+        <v>76.12780824547347</v>
       </c>
       <c r="D16" t="n">
-        <v>4.995499478701851</v>
+        <v>5.318240649926616</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.78800474650048</v>
+        <v>76.43320267970918</v>
       </c>
       <c r="D17" t="n">
-        <v>5.763427123073052</v>
+        <v>5.132813676132542</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.27340524488704</v>
+        <v>75.68173295505325</v>
       </c>
       <c r="D18" t="n">
-        <v>4.586438329720574</v>
+        <v>5.274935219942267</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.75926937233223</v>
+        <v>74.06626282269838</v>
       </c>
       <c r="D19" t="n">
-        <v>5.512865864252873</v>
+        <v>4.745420107505437</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.50814800473576</v>
+        <v>73.25367164645628</v>
       </c>
       <c r="D20" t="n">
-        <v>5.393074507410844</v>
+        <v>4.846228198714734</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.40358876867174</v>
+        <v>72.44479865292523</v>
       </c>
       <c r="D21" t="n">
-        <v>5.683120466747195</v>
+        <v>5.497204552977458</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.62286981776259</v>
+        <v>71.41544454123805</v>
       </c>
       <c r="D22" t="n">
-        <v>5.122300332945736</v>
+        <v>5.269739867701071</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.89565466155615</v>
+        <v>69.66078632258981</v>
       </c>
       <c r="D23" t="n">
-        <v>5.758670893771069</v>
+        <v>4.815110409944191</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.00816423214776</v>
+        <v>69.03077148718283</v>
       </c>
       <c r="D24" t="n">
-        <v>4.670422808501293</v>
+        <v>5.64364219886189</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.96636717488828</v>
+        <v>68.34056530500109</v>
       </c>
       <c r="D25" t="n">
-        <v>5.105223799184687</v>
+        <v>5.424136024588824</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.79809737028769</v>
+        <v>66.9794155068262</v>
       </c>
       <c r="D26" t="n">
-        <v>5.379809501533579</v>
+        <v>4.983073321610643</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.95696642135223</v>
+        <v>65.79425538165806</v>
       </c>
       <c r="D27" t="n">
-        <v>5.551307783752509</v>
+        <v>5.552675959227436</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.65017896331481</v>
+        <v>65.22559418658871</v>
       </c>
       <c r="D28" t="n">
-        <v>5.561209788667404</v>
+        <v>5.183774432615451</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.93302580982107</v>
+        <v>62.89351281254144</v>
       </c>
       <c r="D29" t="n">
-        <v>5.119380233114922</v>
+        <v>5.922888241223304</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.13238429929804</v>
+        <v>62.95293064853885</v>
       </c>
       <c r="D30" t="n">
-        <v>5.574814489793672</v>
+        <v>4.987685593302358</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.93567191035788</v>
+        <v>62.44402317898088</v>
       </c>
       <c r="D31" t="n">
-        <v>4.797779291226063</v>
+        <v>5.25520514550599</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.88085321965339</v>
+        <v>60.6729965320715</v>
       </c>
       <c r="D32" t="n">
-        <v>5.513630691293608</v>
+        <v>4.877384251942088</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.21035165116103</v>
+        <v>59.09747206845143</v>
       </c>
       <c r="D33" t="n">
-        <v>5.101531137788365</v>
+        <v>5.396517004442811</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.14926046199629</v>
+        <v>59.52090931056314</v>
       </c>
       <c r="D34" t="n">
-        <v>5.094596103720329</v>
+        <v>5.385966448165448</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.6158081182469</v>
+        <v>58.09885716883579</v>
       </c>
       <c r="D35" t="n">
-        <v>5.962567022847669</v>
+        <v>5.158579698433031</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.71612072151118</v>
+        <v>56.29534405168849</v>
       </c>
       <c r="D36" t="n">
-        <v>5.435250797844711</v>
+        <v>5.339413587245495</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.31647538500471</v>
+        <v>55.27385861003129</v>
       </c>
       <c r="D37" t="n">
-        <v>5.0960576072951</v>
+        <v>5.931947984868199</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.03281893983427</v>
+        <v>54.25941455430306</v>
       </c>
       <c r="D38" t="n">
-        <v>5.911065225479335</v>
+        <v>5.131385471859998</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.62857562048777</v>
+        <v>53.53463282555462</v>
       </c>
       <c r="D39" t="n">
-        <v>5.65866875621132</v>
+        <v>5.59344843939599</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.35196979197277</v>
+        <v>52.52969549770062</v>
       </c>
       <c r="D40" t="n">
-        <v>6.073133599111382</v>
+        <v>5.020639519252516</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.88967797177521</v>
+        <v>51.46184067509252</v>
       </c>
       <c r="D41" t="n">
-        <v>5.12931858157317</v>
+        <v>5.106625264372346</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.40332399397494</v>
+        <v>50.79213945745728</v>
       </c>
       <c r="D42" t="n">
-        <v>5.285331556530075</v>
+        <v>5.648750415485001</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.77025237545966</v>
+        <v>49.34584686466501</v>
       </c>
       <c r="D43" t="n">
-        <v>5.054095675595281</v>
+        <v>5.438511013082739</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.44994531042123</v>
+        <v>48.07978874377616</v>
       </c>
       <c r="D44" t="n">
-        <v>5.342707917163414</v>
+        <v>4.788226526640608</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.0270648757701</v>
+        <v>47.16037690625845</v>
       </c>
       <c r="D45" t="n">
-        <v>4.887427676968795</v>
+        <v>4.562701091012793</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.16621307663471</v>
+        <v>45.82197528057586</v>
       </c>
       <c r="D46" t="n">
-        <v>4.732952959747016</v>
+        <v>4.95164196939685</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.0792815990279</v>
+        <v>45.45304823520578</v>
       </c>
       <c r="D47" t="n">
-        <v>4.644545487130165</v>
+        <v>4.702797145486875</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.29377721508197</v>
+        <v>44.42945829759758</v>
       </c>
       <c r="D48" t="n">
-        <v>5.385254772565271</v>
+        <v>5.06607616459508</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.98828005265827</v>
+        <v>43.41587345015253</v>
       </c>
       <c r="D49" t="n">
-        <v>5.664418918005614</v>
+        <v>4.601790135220208</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.64338853308225</v>
+        <v>42.50976790131385</v>
       </c>
       <c r="D50" t="n">
-        <v>5.905835102089303</v>
+        <v>4.996292961914236</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.3967182093377</v>
+        <v>41.34643695897888</v>
       </c>
       <c r="D51" t="n">
-        <v>4.867420139139651</v>
+        <v>4.855986523393586</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.09951576668119</v>
+        <v>40.48911184143369</v>
       </c>
       <c r="D52" t="n">
-        <v>5.186188097142729</v>
+        <v>4.656513427658373</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.71776431002118</v>
+        <v>38.06421005706824</v>
       </c>
       <c r="D53" t="n">
-        <v>4.940891352549177</v>
+        <v>5.727050691898683</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.4893369220305</v>
+        <v>37.66527441738004</v>
       </c>
       <c r="D54" t="n">
-        <v>5.444902773299019</v>
+        <v>4.822764286519273</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.89712759841623</v>
+        <v>37.58581062909442</v>
       </c>
       <c r="D55" t="n">
-        <v>4.623495787516568</v>
+        <v>5.248862857138422</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.11396889804337</v>
+        <v>35.60240882194493</v>
       </c>
       <c r="D56" t="n">
-        <v>5.624708892661913</v>
+        <v>5.730227961319621</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.76606880143419</v>
+        <v>35.32323796733822</v>
       </c>
       <c r="D57" t="n">
-        <v>5.391541272074507</v>
+        <v>4.681883545671937</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.26484699514485</v>
+        <v>33.91287450422227</v>
       </c>
       <c r="D58" t="n">
-        <v>6.049476224846043</v>
+        <v>5.604202305902358</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.74974345304529</v>
+        <v>31.99965546724465</v>
       </c>
       <c r="D59" t="n">
-        <v>5.006276961441888</v>
+        <v>4.602049832852973</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>33.2004360070017</v>
+        <v>31.31417653485172</v>
       </c>
       <c r="D60" t="n">
-        <v>4.716941305968604</v>
+        <v>5.310160668286431</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.99799364503683</v>
+        <v>31.1651019925641</v>
       </c>
       <c r="D61" t="n">
-        <v>5.594493990386943</v>
+        <v>5.219529543096209</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.41947156916988</v>
+        <v>30.52790693286701</v>
       </c>
       <c r="D62" t="n">
-        <v>4.918148291184637</v>
+        <v>5.25140963361143</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.42338121153812</v>
+        <v>28.84724024516896</v>
       </c>
       <c r="D63" t="n">
-        <v>4.615901857760008</v>
+        <v>5.066336574686552</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.66174519467424</v>
+        <v>28.52230958854241</v>
       </c>
       <c r="D64" t="n">
-        <v>5.491697723920172</v>
+        <v>4.630385857365022</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.1581844636395</v>
+        <v>26.44765764299702</v>
       </c>
       <c r="D65" t="n">
-        <v>5.590523004582549</v>
+        <v>4.917409370635276</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.33519364788418</v>
+        <v>25.73124921531694</v>
       </c>
       <c r="D66" t="n">
-        <v>4.878635466823897</v>
+        <v>5.441559737662729</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.3031821012564</v>
+        <v>25.95352115535508</v>
       </c>
       <c r="D67" t="n">
-        <v>5.281854263720154</v>
+        <v>5.158277367752567</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.81588441526265</v>
+        <v>24.49919481317402</v>
       </c>
       <c r="D68" t="n">
-        <v>5.228426467292099</v>
+        <v>4.976337096951403</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.13071061941193</v>
+        <v>23.1871278574635</v>
       </c>
       <c r="D69" t="n">
-        <v>4.463849795627095</v>
+        <v>4.265841128867002</v>
       </c>
     </row>
   </sheetData>
